--- a/web-platform_11_21_dev/static/media/data/account/generate_passwords.xlsx
+++ b/web-platform_11_21_dev/static/media/data/account/generate_passwords.xlsx
@@ -1,34 +1,80 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Github_Projects\python-jsx-smart-pmp-app\web-platform_11_21_dev\static\media\data\account\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80114EBA-6AA5-4D27-8D3A-0620180B3D27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Зашифрованный Пароль</t>
+  </si>
+  <si>
+    <t>Пароль</t>
+  </si>
+  <si>
+    <t>pbkdf2_sha256$260000$uf93p5gDyxWYGyC09WJ5kq$RolG18U3ZoqJ7t67slT4pjhLBblqoCq+msww7tIxgrM=</t>
+  </si>
+  <si>
+    <t>G9w50slzia2x</t>
+  </si>
+  <si>
+    <t>pbkdf2_sha256$260000$mAUxQi52WY72fb9GPpJROG$OxV4v4UzuAuZ+fFaHu5AeeiqmMolBbqxJ/WobSCRqWU=</t>
+  </si>
+  <si>
+    <t>FQwPnfp4IJJf</t>
+  </si>
+  <si>
+    <t>pbkdf2_sha256$260000$XmMZYOBAUHGH48eSuJkYXG$3cTeeKx5OnvEd5eY04kIoSKZylWg5QJwG3Nzj69yVWY=</t>
+  </si>
+  <si>
+    <t>6W7QwnTvkpf8</t>
+  </si>
+  <si>
+    <t>pbkdf2_sha256$260000$viyWda5xq5Vu7SwKJrtrf5$zUTRwNgEwkwdZo2ddX2jblJ/CXtnUVK2xCp21brGfS0=</t>
+  </si>
+  <si>
+    <t>o551ezyWOY5t</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,81 +92,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,80 +396,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="90.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Зашифрованный Пароль</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Пароль</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$260000$uf93p5gDyxWYGyC09WJ5kq$RolG18U3ZoqJ7t67slT4pjhLBblqoCq+msww7tIxgrM=</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>G9w50slzia2x</t>
-        </is>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$260000$mAUxQi52WY72fb9GPpJROG$OxV4v4UzuAuZ+fFaHu5AeeiqmMolBbqxJ/WobSCRqWU=</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>FQwPnfp4IJJf</t>
-        </is>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$260000$XmMZYOBAUHGH48eSuJkYXG$3cTeeKx5OnvEd5eY04kIoSKZylWg5QJwG3Nzj69yVWY=</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>6W7QwnTvkpf8</t>
-        </is>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$260000$viyWda5xq5Vu7SwKJrtrf5$zUTRwNgEwkwdZo2ddX2jblJ/CXtnUVK2xCp21brGfS0=</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>o551ezyWOY5t</t>
-        </is>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/web-platform_11_21_dev/static/media/data/account/generate_passwords.xlsx
+++ b/web-platform_11_21_dev/static/media/data/account/generate_passwords.xlsx
@@ -1,80 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Github_Projects\python-jsx-smart-pmp-app\web-platform_11_21_dev\static\media\data\account\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80114EBA-6AA5-4D27-8D3A-0620180B3D27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Зашифрованный Пароль</t>
-  </si>
-  <si>
-    <t>Пароль</t>
-  </si>
-  <si>
-    <t>pbkdf2_sha256$260000$uf93p5gDyxWYGyC09WJ5kq$RolG18U3ZoqJ7t67slT4pjhLBblqoCq+msww7tIxgrM=</t>
-  </si>
-  <si>
-    <t>G9w50slzia2x</t>
-  </si>
-  <si>
-    <t>pbkdf2_sha256$260000$mAUxQi52WY72fb9GPpJROG$OxV4v4UzuAuZ+fFaHu5AeeiqmMolBbqxJ/WobSCRqWU=</t>
-  </si>
-  <si>
-    <t>FQwPnfp4IJJf</t>
-  </si>
-  <si>
-    <t>pbkdf2_sha256$260000$XmMZYOBAUHGH48eSuJkYXG$3cTeeKx5OnvEd5eY04kIoSKZylWg5QJwG3Nzj69yVWY=</t>
-  </si>
-  <si>
-    <t>6W7QwnTvkpf8</t>
-  </si>
-  <si>
-    <t>pbkdf2_sha256$260000$viyWda5xq5Vu7SwKJrtrf5$zUTRwNgEwkwdZo2ddX2jblJ/CXtnUVK2xCp21brGfS0=</t>
-  </si>
-  <si>
-    <t>o551ezyWOY5t</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -92,23 +46,81 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -396,62 +408,176 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="90.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Зашифрованный Пароль</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Пароль</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$9xZeJZ6jWNl9UbxrTS595i$pAyqSBtiM7QSWInmHH3GszPJWxoTUNCICGzdB198jHA=</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>t8qp3JX73H</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$fqahxRe2ok9Zbqmrubjtk7$fQmPAoyL93SipNZHvib/IF+wyEtWwBoc7GXFfI7pH/c=</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>xCX78NjqZu</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$qnA5I4SDzQRQB3NvAsmXSZ$d5G8l2sP/rLLVb9bBc20AGmMViek4XjfnRQRbmEF5x4=</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>6Pb6OLPT6N</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$YbvvWPqvecioJeGxjmFYfu$qzlPVUvkPNv4Hu5Jr215VVa5C1V/tTrNI0U/bgDsXAM=</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1CtoGQXwkh</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$73xOcPScxMltIBVplTQCSh$6bhfTCeUsRyXKwC2NXwlEiPm9nxdv6wLghuInU2I0qU=</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1WZExNQUwL</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$xtDXKyAEyA2gWuWA3pR5XU$m4x08Jjbgy6I0eR4qrdjhIgq21Uh/T4iUyvWdtIKfGQ=</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tok731zDyT</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$z7iyg0IWk58Z9S6kbgfIJe$TNyFdN58A6jU0qjTtI8PWAGJ38d4vLwlbP1qWk4RIE8=</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>04ak7WgBTX</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$OUR5w8u33OSpHgwoQSezzZ$BKIp0QDW4cKfbNRODxhpPf5e02cUCfg69hBZhfzYLhE=</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>4NRU2UY1kN</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$rQmDX5TPTCAqUADV2nGSYd$z5HEUmHnizSFWZrpVpKwU4tEcfBcPK6+jkqjpdcligo=</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ahCoHXMcaa</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$1raW7zWS1vwcJKZj6T5N9G$r1lElscBz3jbR2n3KEA1URWSw2JsrW0+OA3w3yNANHI=</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NxnQveEjT7</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$D0LXP1cOtZNdk9WRqYSPp2$z4dKNFLiQjUIAxLAOIeSs4faajjYo9IHjdpXxcz+1aw=</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ZXH2FTlDCu</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$ixvhgkqeuJC6vOlPKvxmWb$qbY9bqv7tIqSU6zVHhTfcbRwGcJh4iyq9wAC/13bGH8=</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>HQzKFDN6wo</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/web-platform_11_21_dev/static/media/data/account/generate_passwords.xlsx
+++ b/web-platform_11_21_dev/static/media/data/account/generate_passwords.xlsx
@@ -436,144 +436,144 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>pbkdf2_sha256$260000$9xZeJZ6jWNl9UbxrTS595i$pAyqSBtiM7QSWInmHH3GszPJWxoTUNCICGzdB198jHA=</t>
+          <t>pbkdf2_sha256$260000$XoEjbzkbQVamgzZEle3M0t$cB285ypI5ggeB1mR6cN3ymC1T+Qud2nkUkkNjXVcQLo=</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>t8qp3JX73H</t>
+          <t>Kqo3LHFVjpQJ</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pbkdf2_sha256$260000$fqahxRe2ok9Zbqmrubjtk7$fQmPAoyL93SipNZHvib/IF+wyEtWwBoc7GXFfI7pH/c=</t>
+          <t>pbkdf2_sha256$260000$zyQP97YlytrWXNw2HQxE95$dSYsyoOz6S3z6i1mB1YL54rffI4Hdw8D4VkQMCKTqzQ=</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>xCX78NjqZu</t>
+          <t>fypKDIbfjEUk</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>pbkdf2_sha256$260000$qnA5I4SDzQRQB3NvAsmXSZ$d5G8l2sP/rLLVb9bBc20AGmMViek4XjfnRQRbmEF5x4=</t>
+          <t>pbkdf2_sha256$260000$WFXh0VnC6xMJcWx80uN742$0u2rmlXXyDCLzyf+7m0K4WcvBtlfNXVT5f+ypC7kbAo=</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6Pb6OLPT6N</t>
+          <t>It7qfRidW76q</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>pbkdf2_sha256$260000$YbvvWPqvecioJeGxjmFYfu$qzlPVUvkPNv4Hu5Jr215VVa5C1V/tTrNI0U/bgDsXAM=</t>
+          <t>pbkdf2_sha256$260000$wltjsjYt2hLPLks5pvvvS5$dZIJ1kzyGAhzoQf5ceNxxjyfpSAMpKTdQYkadIfFNW4=</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1CtoGQXwkh</t>
+          <t>Yt44lSPJUlDr</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>pbkdf2_sha256$260000$73xOcPScxMltIBVplTQCSh$6bhfTCeUsRyXKwC2NXwlEiPm9nxdv6wLghuInU2I0qU=</t>
+          <t>pbkdf2_sha256$260000$6L0P4IsIoSYpy9ZgLlS5VC$zxs35yD21TrgJDm6o2V2qmbfxyqZATUdY7k/OvfG6Oc=</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1WZExNQUwL</t>
+          <t>Sj4sSDv7FTfT</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>pbkdf2_sha256$260000$xtDXKyAEyA2gWuWA3pR5XU$m4x08Jjbgy6I0eR4qrdjhIgq21Uh/T4iUyvWdtIKfGQ=</t>
+          <t>pbkdf2_sha256$260000$0WEFfWX3ap9clLwJeBUsif$aPPiN96N0W75lj1bEx1uIwVBtNrbhrT7kT8CdPl0s2I=</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tok731zDyT</t>
+          <t>ipJ1ZG6O43Jg</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>pbkdf2_sha256$260000$z7iyg0IWk58Z9S6kbgfIJe$TNyFdN58A6jU0qjTtI8PWAGJ38d4vLwlbP1qWk4RIE8=</t>
+          <t>pbkdf2_sha256$260000$dwECXWLJJvaS99XEtJzyLh$FWjydNlkJawfPXEqKILmR6922n7e+TUzEbQHkQh4zsA=</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>04ak7WgBTX</t>
+          <t>rxTE89kLgypG</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>pbkdf2_sha256$260000$OUR5w8u33OSpHgwoQSezzZ$BKIp0QDW4cKfbNRODxhpPf5e02cUCfg69hBZhfzYLhE=</t>
+          <t>pbkdf2_sha256$260000$UynKNq6FtQfqu0sVyNHYBe$tXEm6u48lNavb0523ZENFQ7rVAefWjv3cM1neZU4Sm4=</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4NRU2UY1kN</t>
+          <t>BbkF3MBVU9Qn</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>pbkdf2_sha256$260000$rQmDX5TPTCAqUADV2nGSYd$z5HEUmHnizSFWZrpVpKwU4tEcfBcPK6+jkqjpdcligo=</t>
+          <t>pbkdf2_sha256$260000$CQ0EBz3qShG4U6iP4TzunX$qOL5GYaIKkv9c/KMo+palHuH1CilH8KMqRjlhb9fXkc=</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ahCoHXMcaa</t>
+          <t>LkvSKOEkpTwU</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>pbkdf2_sha256$260000$1raW7zWS1vwcJKZj6T5N9G$r1lElscBz3jbR2n3KEA1URWSw2JsrW0+OA3w3yNANHI=</t>
+          <t>pbkdf2_sha256$260000$UHnXlT9j1vgkrgF9xRudTn$AiI3mxvgeuT4AOzXQ2n8nRnrECkIcVhFT6RXYY6fkjo=</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NxnQveEjT7</t>
+          <t>r5nbUc1uigON</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>pbkdf2_sha256$260000$D0LXP1cOtZNdk9WRqYSPp2$z4dKNFLiQjUIAxLAOIeSs4faajjYo9IHjdpXxcz+1aw=</t>
+          <t>pbkdf2_sha256$260000$7urlYRjh8MriPaAXqTRXGD$X1KY+PbgerREyas59AuevLiOwMhJQj3XwesZg0Lg9I4=</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ZXH2FTlDCu</t>
+          <t>wb8FxswzQqOp</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>pbkdf2_sha256$260000$ixvhgkqeuJC6vOlPKvxmWb$qbY9bqv7tIqSU6zVHhTfcbRwGcJh4iyq9wAC/13bGH8=</t>
+          <t>pbkdf2_sha256$260000$BYeImvXFyiY2jIhbc8dcGS$jpFaWyHWR9QzpWzuVqKwiFfGhKjYHHh+yOAL2Bgi8Qw=</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HQzKFDN6wo</t>
+          <t>0WHl7a6sbpya</t>
         </is>
       </c>
     </row>

--- a/web-platform_11_21_dev/static/media/data/account/generate_passwords.xlsx
+++ b/web-platform_11_21_dev/static/media/data/account/generate_passwords.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,156 +424,48 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Пароль</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Зашифрованный Пароль</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Пароль</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>pbkdf2_sha256$260000$XoEjbzkbQVamgzZEle3M0t$cB285ypI5ggeB1mR6cN3ymC1T+Qud2nkUkkNjXVcQLo=</t>
+          <t>YGi0ooed</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kqo3LHFVjpQJ</t>
+          <t>pbkdf2_sha256$260000$dvnjkbB0tqD4aqaHYCbEcX$8GGXTRsF5RYvBNbyujZwhGDFvOLvlmKdGc+wbQKbzqs=</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pbkdf2_sha256$260000$zyQP97YlytrWXNw2HQxE95$dSYsyoOz6S3z6i1mB1YL54rffI4Hdw8D4VkQMCKTqzQ=</t>
+          <t>IIK1b0Si</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>fypKDIbfjEUk</t>
+          <t>pbkdf2_sha256$260000$jACLzQMysPRd6elnFfcEx2$ytZvBUmB9TlZump/ycou2UpnqlvmxHNGC9Xv8GBDqdU=</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>pbkdf2_sha256$260000$WFXh0VnC6xMJcWx80uN742$0u2rmlXXyDCLzyf+7m0K4WcvBtlfNXVT5f+ypC7kbAo=</t>
+          <t>tOX1aiz4</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>It7qfRidW76q</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$260000$wltjsjYt2hLPLks5pvvvS5$dZIJ1kzyGAhzoQf5ceNxxjyfpSAMpKTdQYkadIfFNW4=</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Yt44lSPJUlDr</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$260000$6L0P4IsIoSYpy9ZgLlS5VC$zxs35yD21TrgJDm6o2V2qmbfxyqZATUdY7k/OvfG6Oc=</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Sj4sSDv7FTfT</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$260000$0WEFfWX3ap9clLwJeBUsif$aPPiN96N0W75lj1bEx1uIwVBtNrbhrT7kT8CdPl0s2I=</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ipJ1ZG6O43Jg</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$260000$dwECXWLJJvaS99XEtJzyLh$FWjydNlkJawfPXEqKILmR6922n7e+TUzEbQHkQh4zsA=</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>rxTE89kLgypG</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$260000$UynKNq6FtQfqu0sVyNHYBe$tXEm6u48lNavb0523ZENFQ7rVAefWjv3cM1neZU4Sm4=</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>BbkF3MBVU9Qn</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$260000$CQ0EBz3qShG4U6iP4TzunX$qOL5GYaIKkv9c/KMo+palHuH1CilH8KMqRjlhb9fXkc=</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>LkvSKOEkpTwU</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$260000$UHnXlT9j1vgkrgF9xRudTn$AiI3mxvgeuT4AOzXQ2n8nRnrECkIcVhFT6RXYY6fkjo=</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>r5nbUc1uigON</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$260000$7urlYRjh8MriPaAXqTRXGD$X1KY+PbgerREyas59AuevLiOwMhJQj3XwesZg0Lg9I4=</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>wb8FxswzQqOp</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$260000$BYeImvXFyiY2jIhbc8dcGS$jpFaWyHWR9QzpWzuVqKwiFfGhKjYHHh+yOAL2Bgi8Qw=</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0WHl7a6sbpya</t>
+          <t>pbkdf2_sha256$260000$sgGBstnQTmnEmQqBFwYS4b$f0MxnXU3voZFMR7xLnIKxXOo3QAsxBbXkzESUqaeQA0=</t>
         </is>
       </c>
     </row>

--- a/web-platform_11_21_dev/static/media/data/account/generate_passwords.xlsx
+++ b/web-platform_11_21_dev/static/media/data/account/generate_passwords.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,36 +436,240 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>YGi0ooed</t>
+          <t>540LkwxCJ9ie</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pbkdf2_sha256$260000$dvnjkbB0tqD4aqaHYCbEcX$8GGXTRsF5RYvBNbyujZwhGDFvOLvlmKdGc+wbQKbzqs=</t>
+          <t>pbkdf2_sha256$260000$mB5CR3KcqJELLriddNFfed$Mg54drP7//SNDk4408FIotAGKVixH09GFw/Ii6lGDks=</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IIK1b0Si</t>
+          <t>CVYUxjs35qAE</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pbkdf2_sha256$260000$jACLzQMysPRd6elnFfcEx2$ytZvBUmB9TlZump/ycou2UpnqlvmxHNGC9Xv8GBDqdU=</t>
+          <t>pbkdf2_sha256$260000$0qhfAiNDxGXTeFlffzMNJE$mXxqbR6CrgXFrFW1rYxpU1eLMbdgRVUXIaYWEGBRNUk=</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>tOX1aiz4</t>
+          <t>gwjAwGN40XDI</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pbkdf2_sha256$260000$sgGBstnQTmnEmQqBFwYS4b$f0MxnXU3voZFMR7xLnIKxXOo3QAsxBbXkzESUqaeQA0=</t>
+          <t>pbkdf2_sha256$260000$6mhM0o8QMBPg7J6piVU8fY$5bZFNgnWET/ciiBwXsrDS6r0zkItx6ii4ffYmFDH53Y=</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>vERSVeeVK0uh</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$ZjMI2U95926hZrrCboVvob$JBiojuI38vr5fz031UfrwtJHgomeSU5AnSWCMj6E1KA=</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>bVUGVtwpjXEv</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$Jtr5SFLk04SVGy1eFRboli$HAPFVGx9dkRDEGBVsufitS81iP3ckBCxN+pCMP8jpH0=</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>rKyN4PYzpCNs</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$snIA6faqgsF12B4p0JTUOg$Yx9fYqgkhYKqb3J4rY6JnbIC5zGzbbw++u8zMOU9Yu4=</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TN5VwCSxUuBs</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$og063bpNQcg67hgm4CkzMo$UtvdJHj/HOFdL7KJUSiSxr+6iflgG/6Fdc8IgMfuyuE=</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>gsUQAJ9xCaHD</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$Qpba7ZjeZVxQeLccXxi9K8$9zUT+dEf5KyyNzIRq3uKDd4NjhRMZIQ3IurPSB0Gluw=</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>8dTFHolJpaRi</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$nOOxnNGpJ2iVAKc7wAOQ0B$RVkXn+7cEm7WkHHGRyD9fukaAYXmiQG23HhRavcLFxQ=</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>N6aIIyCbY194</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$OA4XgBWCvCq8GFaSD3BwYa$VMko0pnqOyBUKCEjzDQYxRarHZC5J2sf0hHBVIKJlTo=</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>IQGfCtBD9ZOe</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$zhAtbgeoHzNY9sRTXgkaBs$kFKWzfFSywmSxRl0vjI11irK+gvmIg1WErFEk2kiiZI=</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>KsgozDHPFUZV</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$IXyilYLCNQHZF3aBVp9YhY$d/RisMu5SPlvpsdwQRixXRjWxGY1MjoDufQg4u/JjyY=</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1vyXflGTl5VD</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$1Oa4BulEQIwpvXEjkjrlb5$3kgW9zIkDd0gfcAx2k4Q6Xx0NV2aKKxTIDIJ4voDP8I=</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GkSy6wRe3PPW</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$fnxLVhu2Rmb35E1BXdbW40$U7/OxFBMNQ6UnzEfW16jx5c/lU0hlbyB7VTkSwvzWjM=</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>K8sMqRsjHH0z</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$EAec0kU1GbE7UH9f7UMJdW$/Aglj08+3uZQI3eldudTK08NAffI07wZk6AcqA/LSs0=</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>dG0D7uaOq4vw</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$LYCRK2IFga1OMkqYjxVrRT$HBPV0t1m0/P5DMGCWt7Iz37H2v2MVYI8Wt+K/sgZjrA=</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>rLOViglbR8Fb</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$Ru668BomNet09Cenryvrey$snzgUq/aInqSWRhpQ9Eoaes5yGA+BMOPGIo/1/xIUaI=</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ze1KVBCAO1wD</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$USH1EkckLd37AWeGTxwsjG$jMu2EK2i6JZGuBRW3UydQk8MIBlNPpXimBi5iRMSIjA=</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>8S0bXoTMX3VE</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$z99pk2WPF9vDwj4wYJwfkx$DNhruZZ5Tff9IdCl4tTBYhWw4OZhn4tjJXy7WI/qESY=</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MItS8Mn7l8VI</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$p2rbN3fGEUJTo525tExF4P$tuG2iE3oM2D3QXzUPJaCbyNe4+uTq0PIC1DA7I769Kg=</t>
         </is>
       </c>
     </row>

--- a/web-platform_11_21_dev/static/media/data/account/generate_passwords.xlsx
+++ b/web-platform_11_21_dev/static/media/data/account/generate_passwords.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,240 +436,144 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>540LkwxCJ9ie</t>
+          <t>H0U1gbr9</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pbkdf2_sha256$260000$mB5CR3KcqJELLriddNFfed$Mg54drP7//SNDk4408FIotAGKVixH09GFw/Ii6lGDks=</t>
+          <t>pbkdf2_sha256$260000$GmoUzEpMvowYPswY2hB5GW$T44LkPVzfA30f35Ry1l+9tlSx2C6Sf4vZtOhHUclLJA=</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CVYUxjs35qAE</t>
+          <t>vaoFG5ZW</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pbkdf2_sha256$260000$0qhfAiNDxGXTeFlffzMNJE$mXxqbR6CrgXFrFW1rYxpU1eLMbdgRVUXIaYWEGBRNUk=</t>
+          <t>pbkdf2_sha256$260000$evs2ZOfNBXUO4fcAaN8oSF$VZzWoOWlgBbwS3lEuGjFNSp8iDy8KXwaLzGmqWk9cUM=</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>gwjAwGN40XDI</t>
+          <t>cccPlnBK</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pbkdf2_sha256$260000$6mhM0o8QMBPg7J6piVU8fY$5bZFNgnWET/ciiBwXsrDS6r0zkItx6ii4ffYmFDH53Y=</t>
+          <t>pbkdf2_sha256$260000$4VICS6u6uXR5ggna6iUqln$H9wtpITI5mIGdlVxwvIwoQYl6WdzOn3x7TZVGw+LPoQ=</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>vERSVeeVK0uh</t>
+          <t>ybvxjbz8</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pbkdf2_sha256$260000$ZjMI2U95926hZrrCboVvob$JBiojuI38vr5fz031UfrwtJHgomeSU5AnSWCMj6E1KA=</t>
+          <t>pbkdf2_sha256$260000$ksOaAKHonMlkSbizX1zwHG$DoR/b1rovilkvQjc1MA2GVS4ufUdBbbtLQDRF/HtSMI=</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>bVUGVtwpjXEv</t>
+          <t>H6zu17Qg</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pbkdf2_sha256$260000$Jtr5SFLk04SVGy1eFRboli$HAPFVGx9dkRDEGBVsufitS81iP3ckBCxN+pCMP8jpH0=</t>
+          <t>pbkdf2_sha256$260000$B2dcVPy9KyW7FbMCfYPTgz$3FjZfKlFjgKOW5M90KLHTlQeLCjdiv1pg0oBHvLHKyY=</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>rKyN4PYzpCNs</t>
+          <t>kALid3dj</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pbkdf2_sha256$260000$snIA6faqgsF12B4p0JTUOg$Yx9fYqgkhYKqb3J4rY6JnbIC5zGzbbw++u8zMOU9Yu4=</t>
+          <t>pbkdf2_sha256$260000$RlMy0UeG9yvKtEbaebb1FP$TbBDxkOgG/noGjGvFV0F4WWd5VVuJr4WzfNPzNLeYws=</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TN5VwCSxUuBs</t>
+          <t>M8efGwDl</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pbkdf2_sha256$260000$og063bpNQcg67hgm4CkzMo$UtvdJHj/HOFdL7KJUSiSxr+6iflgG/6Fdc8IgMfuyuE=</t>
+          <t>pbkdf2_sha256$260000$4lWKVEUXs9wOHQehRQjGEr$N+OPTnwfjEMmn/oHag9x/t6Qlp+KUpz9syHZC/cintA=</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>gsUQAJ9xCaHD</t>
+          <t>dTI6r246</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pbkdf2_sha256$260000$Qpba7ZjeZVxQeLccXxi9K8$9zUT+dEf5KyyNzIRq3uKDd4NjhRMZIQ3IurPSB0Gluw=</t>
+          <t>pbkdf2_sha256$260000$u3nvrHOcE9Sh19GdT4b1Pf$xZFxgllTgw3g0tvxo8Ll+dxpEbbS6JNjEpB4vZHwmRE=</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8dTFHolJpaRi</t>
+          <t>tCcIrU3p</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pbkdf2_sha256$260000$nOOxnNGpJ2iVAKc7wAOQ0B$RVkXn+7cEm7WkHHGRyD9fukaAYXmiQG23HhRavcLFxQ=</t>
+          <t>pbkdf2_sha256$260000$sbHXpw9SQVHQE1khijpIrc$3sLapzTLsedy74eFXDkIQU77MybWtcS5Ep4rKjqPJyE=</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>N6aIIyCbY194</t>
+          <t>YEXfglMR</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pbkdf2_sha256$260000$OA4XgBWCvCq8GFaSD3BwYa$VMko0pnqOyBUKCEjzDQYxRarHZC5J2sf0hHBVIKJlTo=</t>
+          <t>pbkdf2_sha256$260000$XOo0txTZ1fpRgtdEjtG6ON$jBy4mxuxJg2urBv3qW6bIqFR9vNwlfMrWmhbZ48+1N4=</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IQGfCtBD9ZOe</t>
+          <t>TanFaGXo</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pbkdf2_sha256$260000$zhAtbgeoHzNY9sRTXgkaBs$kFKWzfFSywmSxRl0vjI11irK+gvmIg1WErFEk2kiiZI=</t>
+          <t>pbkdf2_sha256$260000$JZ77mMCSzeKnVHwZIXR7Sx$gRSC7g1TrSgv2aw6RZtElqdMmRMLXXy0G8tYI28LbCI=</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>KsgozDHPFUZV</t>
+          <t>vqx8anoT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pbkdf2_sha256$260000$IXyilYLCNQHZF3aBVp9YhY$d/RisMu5SPlvpsdwQRixXRjWxGY1MjoDufQg4u/JjyY=</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>1vyXflGTl5VD</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$260000$1Oa4BulEQIwpvXEjkjrlb5$3kgW9zIkDd0gfcAx2k4Q6Xx0NV2aKKxTIDIJ4voDP8I=</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>GkSy6wRe3PPW</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$260000$fnxLVhu2Rmb35E1BXdbW40$U7/OxFBMNQ6UnzEfW16jx5c/lU0hlbyB7VTkSwvzWjM=</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>K8sMqRsjHH0z</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$260000$EAec0kU1GbE7UH9f7UMJdW$/Aglj08+3uZQI3eldudTK08NAffI07wZk6AcqA/LSs0=</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>dG0D7uaOq4vw</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$260000$LYCRK2IFga1OMkqYjxVrRT$HBPV0t1m0/P5DMGCWt7Iz37H2v2MVYI8Wt+K/sgZjrA=</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>rLOViglbR8Fb</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$260000$Ru668BomNet09Cenryvrey$snzgUq/aInqSWRhpQ9Eoaes5yGA+BMOPGIo/1/xIUaI=</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Ze1KVBCAO1wD</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$260000$USH1EkckLd37AWeGTxwsjG$jMu2EK2i6JZGuBRW3UydQk8MIBlNPpXimBi5iRMSIjA=</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>8S0bXoTMX3VE</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$260000$z99pk2WPF9vDwj4wYJwfkx$DNhruZZ5Tff9IdCl4tTBYhWw4OZhn4tjJXy7WI/qESY=</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>MItS8Mn7l8VI</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$260000$p2rbN3fGEUJTo525tExF4P$tuG2iE3oM2D3QXzUPJaCbyNe4+uTq0PIC1DA7I769Kg=</t>
+          <t>pbkdf2_sha256$260000$eDVewlD8FZYTDn2BpHgHE4$WbyF7nv5vBfusfhbVlOAXvdmii3SoFHgNXFPpVGbrWI=</t>
         </is>
       </c>
     </row>

--- a/web-platform_11_21_dev/static/media/data/account/generate_passwords.xlsx
+++ b/web-platform_11_21_dev/static/media/data/account/generate_passwords.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,144 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>H0U1gbr9</t>
+          <t>CFF4LjHE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pbkdf2_sha256$260000$GmoUzEpMvowYPswY2hB5GW$T44LkPVzfA30f35Ry1l+9tlSx2C6Sf4vZtOhHUclLJA=</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>vaoFG5ZW</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$260000$evs2ZOfNBXUO4fcAaN8oSF$VZzWoOWlgBbwS3lEuGjFNSp8iDy8KXwaLzGmqWk9cUM=</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>cccPlnBK</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$260000$4VICS6u6uXR5ggna6iUqln$H9wtpITI5mIGdlVxwvIwoQYl6WdzOn3x7TZVGw+LPoQ=</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ybvxjbz8</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$260000$ksOaAKHonMlkSbizX1zwHG$DoR/b1rovilkvQjc1MA2GVS4ufUdBbbtLQDRF/HtSMI=</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>H6zu17Qg</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$260000$B2dcVPy9KyW7FbMCfYPTgz$3FjZfKlFjgKOW5M90KLHTlQeLCjdiv1pg0oBHvLHKyY=</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>kALid3dj</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$260000$RlMy0UeG9yvKtEbaebb1FP$TbBDxkOgG/noGjGvFV0F4WWd5VVuJr4WzfNPzNLeYws=</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>M8efGwDl</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$260000$4lWKVEUXs9wOHQehRQjGEr$N+OPTnwfjEMmn/oHag9x/t6Qlp+KUpz9syHZC/cintA=</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>dTI6r246</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$260000$u3nvrHOcE9Sh19GdT4b1Pf$xZFxgllTgw3g0tvxo8Ll+dxpEbbS6JNjEpB4vZHwmRE=</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>tCcIrU3p</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$260000$sbHXpw9SQVHQE1khijpIrc$3sLapzTLsedy74eFXDkIQU77MybWtcS5Ep4rKjqPJyE=</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>YEXfglMR</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$260000$XOo0txTZ1fpRgtdEjtG6ON$jBy4mxuxJg2urBv3qW6bIqFR9vNwlfMrWmhbZ48+1N4=</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>TanFaGXo</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$260000$JZ77mMCSzeKnVHwZIXR7Sx$gRSC7g1TrSgv2aw6RZtElqdMmRMLXXy0G8tYI28LbCI=</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>vqx8anoT</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$260000$eDVewlD8FZYTDn2BpHgHE4$WbyF7nv5vBfusfhbVlOAXvdmii3SoFHgNXFPpVGbrWI=</t>
+          <t>pbkdf2_sha256$260000$fOZe8ABD9v5aXvHDGuDOHv$9S0Z9wcMV42V2HNEv/71nYiNscwBzJAZ+D4HS4Lh8sM=</t>
         </is>
       </c>
     </row>

--- a/web-platform_11_21_dev/static/media/data/account/generate_passwords.xlsx
+++ b/web-platform_11_21_dev/static/media/data/account/generate_passwords.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CFF4LjHE</t>
+          <t>MH4syxEq</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pbkdf2_sha256$260000$fOZe8ABD9v5aXvHDGuDOHv$9S0Z9wcMV42V2HNEv/71nYiNscwBzJAZ+D4HS4Lh8sM=</t>
+          <t>pbkdf2_sha256$260000$macePjcd9ntkfpQy8LVL75$ZZlnjeT6VgYYJQSs3Zpue6v7WUCm0p6srr1eWv64ulo=</t>
         </is>
       </c>
     </row>

--- a/web-platform_11_21_dev/static/media/data/account/generate_passwords.xlsx
+++ b/web-platform_11_21_dev/static/media/data/account/generate_passwords.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MH4syxEq</t>
+          <t>6olyxk8V</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pbkdf2_sha256$260000$macePjcd9ntkfpQy8LVL75$ZZlnjeT6VgYYJQSs3Zpue6v7WUCm0p6srr1eWv64ulo=</t>
+          <t>pbkdf2_sha256$260000$ZCR13qdFYzJ9eMAzzEvAL0$iMEmq2Qb7863TB/gEGHSPohkunPwBlHWK24YRUzQV6k=</t>
         </is>
       </c>
     </row>

--- a/web-platform_11_21_dev/static/media/data/account/generate_passwords.xlsx
+++ b/web-platform_11_21_dev/static/media/data/account/generate_passwords.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,144 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>6olyxk8V</t>
+          <t>9ngqvqy2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pbkdf2_sha256$260000$ZCR13qdFYzJ9eMAzzEvAL0$iMEmq2Qb7863TB/gEGHSPohkunPwBlHWK24YRUzQV6k=</t>
+          <t>pbkdf2_sha256$260000$s321TNNfDMV4CbobuKd4jX$J3GKOeiYWJ2wOfy7+03fV/vGgUGG5re/zLSO2XFm+co=</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HFxvxpgf</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$poqYcnrFKIoEygo6xrZha6$9VcnHPVi3WWTOaPJ+wtH0BozbFdqof2LJIpf1LFQeC8=</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>hhttpdI0</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$u9y7ekVgekzTtGdlQZjvAr$FzNXya4n9+Y2w34J9yEYCX+3VQ+MLGBvJEXouaDbHfc=</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PgynshsS</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$uKeklULARbLJrHoPTEdcwt$IjRY106iNDCgwEslbacqym8apFwHI8hLYgIfFbbIV+Q=</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nW4PbSZt</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$k2DHsGswXgNjdJiSPCNsRj$XFMOywbi7j2udR5BpaLbaiSmCVvqkuKGDjZcqlPPUm8=</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>vY8GiljP</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$9P3BbAhO1mm3vRR4PO9wlA$Yl+byhzozXanyqeFHQULgjzslbyAvY35cSF1zx3qbxc=</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MAwYi0sc</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$ew47oSuZZiIzIlWSmXWsEc$QwxO6YxETuPVMJ4o7RGjZIBuvykR0TpQUHu8f/aeul0=</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>6SbUCq1t</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$bddH5GJGCeoikJ33JibQeJ$ybXSkWP0v71/Ne7lK7hBX4d381fQXU3T94ORTYV11P0=</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>eLJWiIGZ</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$fzkXp1Ab1zXxT8cqsoAnaJ$3s6VLInJ8U90g+xz2sc50VNO6+HDL/ErS5yhsecpwnU=</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>UpcpYSxE</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$ZO2Fe8t6pxTdS3FbTmefg8$DCfrMaDYMAc3h2hDZCZ3qTNi43zdi4XA6EfDPuLaZbk=</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>hd2p3z51</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$4NYxksphfSCGflAQd9vOOj$UdCRbvT7J7scZe1FV4iw+e3HKY0MO0LvAgsR9DykLJ0=</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>M4sDhZBk</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$fQWKMS0UWv4vSVfMYH26fz$OHy2593sFx6TxcIUCPW5cuWfFeinCfeVICI3q/DeArk=</t>
         </is>
       </c>
     </row>

--- a/web-platform_11_21_dev/static/media/data/account/generate_passwords.xlsx
+++ b/web-platform_11_21_dev/static/media/data/account/generate_passwords.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,144 +436,60 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>9ngqvqy2</t>
+          <t>agbabcbfebbb</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pbkdf2_sha256$260000$s321TNNfDMV4CbobuKd4jX$J3GKOeiYWJ2wOfy7+03fV/vGgUGG5re/zLSO2XFm+co=</t>
+          <t>pbkdf2_sha256$260000$umAvIOtwPzDuRnjifu7s5u$zQC+bWExm6SwLRkZbV1baAI7eZZnpPLeyWudKRxJOw4=</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HFxvxpgf</t>
+          <t>baffeddabdfa</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pbkdf2_sha256$260000$poqYcnrFKIoEygo6xrZha6$9VcnHPVi3WWTOaPJ+wtH0BozbFdqof2LJIpf1LFQeC8=</t>
+          <t>pbkdf2_sha256$260000$PbPGLfiqDaXA7z69jFZc91$jfZwj5jbQXXVg9Sf/hG6ur0qXvXx+3YBP4GIC771q3k=</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>hhttpdI0</t>
+          <t>gfaafbgaegab</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pbkdf2_sha256$260000$u9y7ekVgekzTtGdlQZjvAr$FzNXya4n9+Y2w34J9yEYCX+3VQ+MLGBvJEXouaDbHfc=</t>
+          <t>pbkdf2_sha256$260000$vA2A8bOGmrdRYIrycSfHgJ$OJOSEI0hYVWf9XpXHZL26bL+NXd+bhju+8NcyuPbIwI=</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PgynshsS</t>
+          <t>ddbcbbfagabg</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pbkdf2_sha256$260000$uKeklULARbLJrHoPTEdcwt$IjRY106iNDCgwEslbacqym8apFwHI8hLYgIfFbbIV+Q=</t>
+          <t>pbkdf2_sha256$260000$t6Iuilu94UrOYcaWn9vie8$p9g6RKbiHK2Rxg5HPe/GcxCZv5RS4t7Fl1r47Km0PWU=</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>nW4PbSZt</t>
+          <t>gdcaabegfabc</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pbkdf2_sha256$260000$k2DHsGswXgNjdJiSPCNsRj$XFMOywbi7j2udR5BpaLbaiSmCVvqkuKGDjZcqlPPUm8=</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>vY8GiljP</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$260000$9P3BbAhO1mm3vRR4PO9wlA$Yl+byhzozXanyqeFHQULgjzslbyAvY35cSF1zx3qbxc=</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>MAwYi0sc</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$260000$ew47oSuZZiIzIlWSmXWsEc$QwxO6YxETuPVMJ4o7RGjZIBuvykR0TpQUHu8f/aeul0=</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>6SbUCq1t</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$260000$bddH5GJGCeoikJ33JibQeJ$ybXSkWP0v71/Ne7lK7hBX4d381fQXU3T94ORTYV11P0=</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>eLJWiIGZ</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$260000$fzkXp1Ab1zXxT8cqsoAnaJ$3s6VLInJ8U90g+xz2sc50VNO6+HDL/ErS5yhsecpwnU=</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>UpcpYSxE</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$260000$ZO2Fe8t6pxTdS3FbTmefg8$DCfrMaDYMAc3h2hDZCZ3qTNi43zdi4XA6EfDPuLaZbk=</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>hd2p3z51</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$260000$4NYxksphfSCGflAQd9vOOj$UdCRbvT7J7scZe1FV4iw+e3HKY0MO0LvAgsR9DykLJ0=</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>M4sDhZBk</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$260000$fQWKMS0UWv4vSVfMYH26fz$OHy2593sFx6TxcIUCPW5cuWfFeinCfeVICI3q/DeArk=</t>
+          <t>pbkdf2_sha256$260000$KkkkjnoGTS1DTrmc2AGn86$3N93jn56tGaZ6Kanw8kj6YUbyqG7F5BH2gtMKOqM+4w=</t>
         </is>
       </c>
     </row>

--- a/web-platform_11_21_dev/static/media/data/account/generate_passwords.xlsx
+++ b/web-platform_11_21_dev/static/media/data/account/generate_passwords.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,60 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>agbabcbfebbb</t>
+          <t>NtICCvO7SzdF</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pbkdf2_sha256$260000$umAvIOtwPzDuRnjifu7s5u$zQC+bWExm6SwLRkZbV1baAI7eZZnpPLeyWudKRxJOw4=</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>baffeddabdfa</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$260000$PbPGLfiqDaXA7z69jFZc91$jfZwj5jbQXXVg9Sf/hG6ur0qXvXx+3YBP4GIC771q3k=</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>gfaafbgaegab</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$260000$vA2A8bOGmrdRYIrycSfHgJ$OJOSEI0hYVWf9XpXHZL26bL+NXd+bhju+8NcyuPbIwI=</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>ddbcbbfagabg</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$260000$t6Iuilu94UrOYcaWn9vie8$p9g6RKbiHK2Rxg5HPe/GcxCZv5RS4t7Fl1r47Km0PWU=</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>gdcaabegfabc</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>pbkdf2_sha256$260000$KkkkjnoGTS1DTrmc2AGn86$3N93jn56tGaZ6Kanw8kj6YUbyqG7F5BH2gtMKOqM+4w=</t>
+          <t>pbkdf2_sha256$260000$2T0cs0dFPGEDBiWDVAmSpg$TocgHBHjGAdrJt7CvtlTHYiA20EUR7quoUEGDPUMD8o=</t>
         </is>
       </c>
     </row>

--- a/web-platform_11_21_dev/static/media/data/account/generate_passwords.xlsx
+++ b/web-platform_11_21_dev/static/media/data/account/generate_passwords.xlsx
@@ -436,12 +436,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NtICCvO7SzdF</t>
+          <t>S5GwsjHA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pbkdf2_sha256$260000$2T0cs0dFPGEDBiWDVAmSpg$TocgHBHjGAdrJt7CvtlTHYiA20EUR7quoUEGDPUMD8o=</t>
+          <t>pbkdf2_sha256$260000$9UlHXoBcWhdQADLozhW73v$TUTrg12ESPr9+2hu12RnRtwpBrEblzq0OmasIdLTV/k=</t>
         </is>
       </c>
     </row>

--- a/web-platform_11_21_dev/static/media/data/account/generate_passwords.xlsx
+++ b/web-platform_11_21_dev/static/media/data/account/generate_passwords.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,144 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>S5GwsjHA</t>
+          <t>rlXpQH3g</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pbkdf2_sha256$260000$9UlHXoBcWhdQADLozhW73v$TUTrg12ESPr9+2hu12RnRtwpBrEblzq0OmasIdLTV/k=</t>
+          <t>pbkdf2_sha256$260000$dZdx1xpSvWMjbemsOKavMj$Lg6tQYsMjJ1QIB5kMQTvKleRny+ct5eYQWGFwmEDtQA=</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>WVz7BsF3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$vY1JkuaZ4MjvJ7ggpmoU2b$dHg/AmMjTlMGqNDXjEJUCxsy0mzzdwPy+1Ao2HIulv8=</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ZQnf99IE</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$9ef5LL2EaI1TtqgVYRrIWJ$6S+utM/QCIehX/a6Oa1JtNRvodhaCLMREcrdAf7m/nA=</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>xdJE4rDf</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$ueveKCaSerqXjm3GOAILKb$amfEk2gwmougC3j8QJeSy5bXabtoBrfqZHa9uknPR7M=</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>7DFXfH0z</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$T5pJqoYzvgQbd8oSUvIG2N$1/Ef2DXTeoiXHyFhlloi3x/31EqyqsfaQgVYTq4bqfA=</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>iFtAl9W2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$asK1ox4Da29wK8SmORCWXg$XapiQqZrgdckImOUd7DEE4oLhXvg+0jN2GeT6272DzU=</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sxDtpqZJ</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$u1jPfBOVWndw411s1OMRgR$3faJnJNtYR/43zJA30AC8GHP4BXhVXJooWtnJmCvbqM=</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>7dOE6K8E</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$jgus7COBXSsmPrgOTbE0wW$E8fwX/rJqGuD3p12l0DEF1V4jkpY8iqPjJqlWBqJ5lU=</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>cn0jt3Ph</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$me7bE9vKRKC0wVskAuGRmu$HOVEpoeVUiGcv/aZd09bL0ihJIe+s+idQ6yAzwKtyzA=</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sNz8sDuZ</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$RSsqTYhnJS54ZaUz0OSNFR$l3UDGOS/jtniYwPppj3/Gdtw7SqokzUpHVFLBFrzPqE=</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>R59gJXii</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$B5ygwi1NGXBOkyrHjy0eqH$PwlHiMQS0ChRH4KCB//nLRrjBdcHGA/2lSax9FZGseQ=</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>hstRON9Q</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>pbkdf2_sha256$260000$dZMCe3HufZkrl0HlcBLuAU$lVdT5yHcuikkO3eM/rlKFUYqT5BlfxbZXfW3HFyA49s=</t>
         </is>
       </c>
     </row>
